--- a/rp/qq群推广日志_曹亮.xlsx
+++ b/rp/qq群推广日志_曹亮.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="注意事项及步骤" sheetId="2" r:id="rId1"/>
@@ -1185,12 +1185,6 @@
   </si>
   <si>
     <t>步骤：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.每天最多发送加群请求20个，千万不要超
-2.同一个群，只能发一次请求，否则可能被举报
-3.先整个加一轮，过一段时间把没有通过的再加一轮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1221,6 +1215,13 @@
   </si>
   <si>
     <t>4.统一处理验证框，输入验证信息。大致验证信息如下：兼职写作，一起交流，谢谢！，下一步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.每天最多发送加群请求20个，千万不要超
+2.同一个群，只能发一次请求，否则可能被举报
+3.先整个加一轮，过一段时间把没有通过的再加一轮
+4.如果被群主拒绝，就放弃这个qq群，把qq群从名单中剔除（如果多次被同一个群拒绝，有可能被限制）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,17 +1286,17 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1657,69 +1658,69 @@
     <col min="9" max="9" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1739,7 +1740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+    <sheetView topLeftCell="A282" workbookViewId="0">
       <selection activeCell="C406" sqref="C406"/>
     </sheetView>
   </sheetViews>
